--- a/biology/Médecine/Jacques_Bassot/Jacques_Bassot.xlsx
+++ b/biology/Médecine/Jacques_Bassot/Jacques_Bassot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Bassot, né le 23 mai 1923 à Strasbourg et mort le 26 janvier 2018 à Antony[1], est un médecin français. Agréé en 1951, il fonde l'Association nationale pour le développement de l'éducation sanitaire et sociale (ANDESS) le 10 octobre 1979.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Bassot, né le 23 mai 1923 à Strasbourg et mort le 26 janvier 2018 à Antony, est un médecin français. Agréé en 1951, il fonde l'Association nationale pour le développement de l'éducation sanitaire et sociale (ANDESS) le 10 octobre 1979.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Bassot a été élevé par sa mère. Reçu major au concours d’internes à Nancy, il est d’abord chef de clinique à la faculté de médecine de Nancy jusqu’en 1952 avant de démissionner. Il s'expatria ensuite 6 ans à Kinshasa, au Congo, où il fut directeur du CHU et titulaire de la chaire de santé publique. Tout au long de sa carrière, il s'intéressa à la vulgarisation médicale. Il s'impliqua également dans l'associatif en commissaire national des Scouts de France de 1957 à 1962[2]. Avec son épouse infirmière, Marie-Madeleine Perrin, il eut 4 enfants[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Bassot a été élevé par sa mère. Reçu major au concours d’internes à Nancy, il est d’abord chef de clinique à la faculté de médecine de Nancy jusqu’en 1952 avant de démissionner. Il s'expatria ensuite 6 ans à Kinshasa, au Congo, où il fut directeur du CHU et titulaire de la chaire de santé publique. Tout au long de sa carrière, il s'intéressa à la vulgarisation médicale. Il s'impliqua également dans l'associatif en commissaire national des Scouts de France de 1957 à 1962. Avec son épouse infirmière, Marie-Madeleine Perrin, il eut 4 enfants.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1957 - 1962 : responsable national des Scouts de France
 1962 - 1968 : directeur des cliniques universitaires et prof d’E.S. L’université Lovanium à Kinshasa
